--- a/patient_data/patient_86.xlsx
+++ b/patient_data/patient_86.xlsx
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1993,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2070,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
